--- a/9.xlsx
+++ b/9.xlsx
@@ -163,9 +163,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1943,332 +1943,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>42980</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>43010</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f t="shared" ref="F2:F10" si="0">E2-D2</f>
         <v>30</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f t="shared" ref="G2:G10" si="1">F2*C2</f>
         <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>200</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>42981</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>42988</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>300</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>42979</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>43003</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f t="shared" si="1"/>
         <v>7200</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>250</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>43192</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>43201</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>2250</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>300</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>43132</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>43159</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>360</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>43169</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>43174</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>500</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>43189</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>43201</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>400</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>43008</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>43011</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>100</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>43003</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>43028</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7">
         <f>SUM(G2:G10)</f>
         <v>33450</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
